--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Colq</t>
   </si>
   <si>
     <t>Musk</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1708176666666666</v>
+        <v>0.07001433333333333</v>
       </c>
       <c r="H2">
-        <v>0.5124529999999999</v>
+        <v>0.210043</v>
       </c>
       <c r="I2">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="J2">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N2">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O2">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P2">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q2">
-        <v>0.055072299004</v>
+        <v>0.02574072297377778</v>
       </c>
       <c r="R2">
-        <v>0.495650691036</v>
+        <v>0.231666506764</v>
       </c>
       <c r="S2">
-        <v>0.01857653801347872</v>
+        <v>0.004356064167569732</v>
       </c>
       <c r="T2">
-        <v>0.01857653801347871</v>
+        <v>0.004356064167569732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1708176666666666</v>
+        <v>0.07001433333333333</v>
       </c>
       <c r="H3">
-        <v>0.5124529999999999</v>
+        <v>0.210043</v>
       </c>
       <c r="I3">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="J3">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.938638</v>
       </c>
       <c r="O3">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P3">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q3">
-        <v>0.6228375398904444</v>
+        <v>0.2552871490482223</v>
       </c>
       <c r="R3">
-        <v>5.605537859013999</v>
+        <v>2.297584341434</v>
       </c>
       <c r="S3">
-        <v>0.2100904709853505</v>
+        <v>0.04320186358179774</v>
       </c>
       <c r="T3">
-        <v>0.2100904709853505</v>
+        <v>0.04320186358179774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1708176666666666</v>
+        <v>0.07001433333333333</v>
       </c>
       <c r="H4">
-        <v>0.5124529999999999</v>
+        <v>0.210043</v>
       </c>
       <c r="I4">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="J4">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N4">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O4">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P4">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q4">
-        <v>1.452794233696889</v>
+        <v>0.002280156793666666</v>
       </c>
       <c r="R4">
-        <v>13.075148103272</v>
+        <v>0.020521411143</v>
       </c>
       <c r="S4">
-        <v>0.4900446830097425</v>
+        <v>0.0003858675343132499</v>
       </c>
       <c r="T4">
-        <v>0.4900446830097425</v>
+        <v>0.0003858675343132499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1708176666666666</v>
+        <v>0.07001433333333333</v>
       </c>
       <c r="H5">
-        <v>0.5124529999999999</v>
+        <v>0.210043</v>
       </c>
       <c r="I5">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="J5">
-        <v>0.7221116057148574</v>
+        <v>0.170290407316124</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.059007</v>
+        <v>10.32598433333333</v>
       </c>
       <c r="N5">
-        <v>0.177021</v>
+        <v>30.977953</v>
       </c>
       <c r="O5">
-        <v>0.004708293952594701</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="P5">
-        <v>0.0047082939525947</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="Q5">
-        <v>0.010079438057</v>
+        <v>0.7229669091087777</v>
       </c>
       <c r="R5">
-        <v>0.090714942513</v>
+        <v>6.506702181979</v>
       </c>
       <c r="S5">
-        <v>0.003399913706285712</v>
+        <v>0.1223466120324433</v>
       </c>
       <c r="T5">
-        <v>0.003399913706285711</v>
+        <v>0.1223466120324433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06527033333333333</v>
+        <v>0.1708176666666666</v>
       </c>
       <c r="H6">
-        <v>0.195811</v>
+        <v>0.5124529999999999</v>
       </c>
       <c r="I6">
-        <v>0.2759226614472585</v>
+        <v>0.4154665001945777</v>
       </c>
       <c r="J6">
-        <v>0.2759226614472585</v>
+        <v>0.4154665001945778</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N6">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O6">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P6">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q6">
-        <v>0.021043416548</v>
+        <v>0.06280100127155555</v>
       </c>
       <c r="R6">
-        <v>0.189390748932</v>
+        <v>0.5652090114439999</v>
       </c>
       <c r="S6">
-        <v>0.007098193365942402</v>
+        <v>0.01062771980434297</v>
       </c>
       <c r="T6">
-        <v>0.007098193365942399</v>
+        <v>0.01062771980434298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06527033333333333</v>
+        <v>0.1708176666666666</v>
       </c>
       <c r="H7">
-        <v>0.195811</v>
+        <v>0.5124529999999999</v>
       </c>
       <c r="I7">
-        <v>0.2759226614472585</v>
+        <v>0.4154665001945777</v>
       </c>
       <c r="J7">
-        <v>0.2759226614472585</v>
+        <v>0.4154665001945778</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>10.938638</v>
       </c>
       <c r="O7">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P7">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q7">
-        <v>0.2379895161575556</v>
+        <v>0.6228375398904444</v>
       </c>
       <c r="R7">
-        <v>2.141905645418</v>
+        <v>5.605537859013999</v>
       </c>
       <c r="S7">
-        <v>0.08027667944984705</v>
+        <v>0.1054018681797679</v>
       </c>
       <c r="T7">
-        <v>0.08027667944984702</v>
+        <v>0.1054018681797679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1708176666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.5124529999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4154665001945777</v>
+      </c>
+      <c r="J8">
+        <v>0.4154665001945778</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.06527033333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.195811</v>
-      </c>
-      <c r="I8">
-        <v>0.2759226614472585</v>
-      </c>
-      <c r="J8">
-        <v>0.2759226614472585</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N8">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O8">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P8">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q8">
-        <v>0.5551203558071111</v>
+        <v>0.005563018950333332</v>
       </c>
       <c r="R8">
-        <v>4.996083202264</v>
+        <v>0.05006717055299999</v>
       </c>
       <c r="S8">
-        <v>0.1872486636331931</v>
+        <v>0.0009414214021006548</v>
       </c>
       <c r="T8">
-        <v>0.187248663633193</v>
+        <v>0.0009414214021006549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06527033333333333</v>
+        <v>0.1708176666666666</v>
       </c>
       <c r="H9">
-        <v>0.195811</v>
+        <v>0.5124529999999999</v>
       </c>
       <c r="I9">
-        <v>0.2759226614472585</v>
+        <v>0.4154665001945777</v>
       </c>
       <c r="J9">
-        <v>0.2759226614472585</v>
+        <v>0.4154665001945778</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.059007</v>
+        <v>10.32598433333333</v>
       </c>
       <c r="N9">
-        <v>0.177021</v>
+        <v>30.977953</v>
       </c>
       <c r="O9">
-        <v>0.004708293952594701</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="P9">
-        <v>0.0047082939525947</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="Q9">
-        <v>0.003851406559</v>
+        <v>1.763860549856555</v>
       </c>
       <c r="R9">
-        <v>0.034662659031</v>
+        <v>15.874744948709</v>
       </c>
       <c r="S9">
-        <v>0.001299124998275962</v>
+        <v>0.2984954908083661</v>
       </c>
       <c r="T9">
-        <v>0.001299124998275962</v>
+        <v>0.2984954908083662</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,46 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.000465</v>
+        <v>0.002571333333333333</v>
       </c>
       <c r="H10">
-        <v>0.001395</v>
+        <v>0.007714</v>
       </c>
       <c r="I10">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463484</v>
       </c>
       <c r="J10">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N10">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O10">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P10">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q10">
-        <v>0.00014991786</v>
+        <v>0.0009453489857777778</v>
       </c>
       <c r="R10">
-        <v>0.00134926074</v>
+        <v>0.008508140872000001</v>
       </c>
       <c r="S10">
-        <v>5.05690678536428E-05</v>
+        <v>0.0001599799992793519</v>
       </c>
       <c r="T10">
-        <v>5.056906785364279E-05</v>
+        <v>0.0001599799992793519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.000465</v>
+        <v>0.002571333333333333</v>
       </c>
       <c r="H11">
-        <v>0.001395</v>
+        <v>0.007714</v>
       </c>
       <c r="I11">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463484</v>
       </c>
       <c r="J11">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463485</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.938638</v>
       </c>
       <c r="O11">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P11">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q11">
-        <v>0.00169548889</v>
+        <v>0.009375628170222224</v>
       </c>
       <c r="R11">
-        <v>0.01525940001</v>
+        <v>0.08438065353200001</v>
       </c>
       <c r="S11">
-        <v>0.0005719084618971183</v>
+        <v>0.001586623575505909</v>
       </c>
       <c r="T11">
-        <v>0.0005719084618971182</v>
+        <v>0.00158662357550591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,46 +1157,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.000465</v>
+        <v>0.002571333333333333</v>
       </c>
       <c r="H12">
-        <v>0.001395</v>
+        <v>0.007714</v>
       </c>
       <c r="I12">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463484</v>
       </c>
       <c r="J12">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463485</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N12">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O12">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P12">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q12">
-        <v>0.003954797719999999</v>
+        <v>8.374061266666666E-05</v>
       </c>
       <c r="R12">
-        <v>0.03559317948</v>
+        <v>0.000753665514</v>
       </c>
       <c r="S12">
-        <v>0.001334000060100323</v>
+        <v>1.417129901826012E-05</v>
       </c>
       <c r="T12">
-        <v>0.001334000060100323</v>
+        <v>1.417129901826012E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,46 +1219,294 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.000465</v>
+        <v>0.002571333333333333</v>
       </c>
       <c r="H13">
-        <v>0.001395</v>
+        <v>0.007714</v>
       </c>
       <c r="I13">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463484</v>
       </c>
       <c r="J13">
-        <v>0.001965732837884111</v>
+        <v>0.006254053703463485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.32598433333333</v>
+      </c>
+      <c r="N13">
+        <v>30.977953</v>
+      </c>
+      <c r="O13">
+        <v>0.7184586258304102</v>
+      </c>
+      <c r="P13">
+        <v>0.7184586258304102</v>
+      </c>
+      <c r="Q13">
+        <v>0.02655154771577778</v>
+      </c>
+      <c r="R13">
+        <v>0.238963929442</v>
+      </c>
+      <c r="S13">
+        <v>0.004493278829659963</v>
+      </c>
+      <c r="T13">
+        <v>0.004493278829659963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1677433333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.5032300000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="J14">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3676493333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.102948</v>
+      </c>
+      <c r="O14">
+        <v>0.02558020875176611</v>
+      </c>
+      <c r="P14">
+        <v>0.02558020875176611</v>
+      </c>
+      <c r="Q14">
+        <v>0.06167072467111112</v>
+      </c>
+      <c r="R14">
+        <v>0.5550365220400001</v>
+      </c>
+      <c r="S14">
+        <v>0.01043644478057406</v>
+      </c>
+      <c r="T14">
+        <v>0.01043644478057406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1677433333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.5032300000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="J15">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.646212666666667</v>
+      </c>
+      <c r="N15">
+        <v>10.938638</v>
+      </c>
+      <c r="O15">
+        <v>0.2536952272455287</v>
+      </c>
+      <c r="P15">
+        <v>0.2536952272455287</v>
+      </c>
+      <c r="Q15">
+        <v>0.611627866748889</v>
+      </c>
+      <c r="R15">
+        <v>5.504650800740001</v>
+      </c>
+      <c r="S15">
+        <v>0.1035048719084572</v>
+      </c>
+      <c r="T15">
+        <v>0.1035048719084572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1677433333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.5032300000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="J16">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.059007</v>
-      </c>
-      <c r="N13">
-        <v>0.177021</v>
-      </c>
-      <c r="O13">
-        <v>0.004708293952594701</v>
-      </c>
-      <c r="P13">
-        <v>0.0047082939525947</v>
-      </c>
-      <c r="Q13">
-        <v>2.7438255E-05</v>
-      </c>
-      <c r="R13">
-        <v>0.000246944295</v>
-      </c>
-      <c r="S13">
-        <v>9.255248033026577E-06</v>
-      </c>
-      <c r="T13">
-        <v>9.255248033026576E-06</v>
+      <c r="M16">
+        <v>0.032567</v>
+      </c>
+      <c r="N16">
+        <v>0.097701</v>
+      </c>
+      <c r="O16">
+        <v>0.002265938172294887</v>
+      </c>
+      <c r="P16">
+        <v>0.002265938172294887</v>
+      </c>
+      <c r="Q16">
+        <v>0.005462897136666667</v>
+      </c>
+      <c r="R16">
+        <v>0.04916607423</v>
+      </c>
+      <c r="S16">
+        <v>0.0009244779368627223</v>
+      </c>
+      <c r="T16">
+        <v>0.0009244779368627223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1677433333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.5032300000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="J17">
+        <v>0.4079890387858348</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.32598433333333</v>
+      </c>
+      <c r="N17">
+        <v>30.977953</v>
+      </c>
+      <c r="O17">
+        <v>0.7184586258304102</v>
+      </c>
+      <c r="P17">
+        <v>0.7184586258304102</v>
+      </c>
+      <c r="Q17">
+        <v>1.732115032021111</v>
+      </c>
+      <c r="R17">
+        <v>15.58903528819</v>
+      </c>
+      <c r="S17">
+        <v>0.2931232441599408</v>
+      </c>
+      <c r="T17">
+        <v>0.2931232441599408</v>
       </c>
     </row>
   </sheetData>
